--- a/broken_sizes.xlsx
+++ b/broken_sizes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G56"/>
+  <dimension ref="A1:G80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1256,11 +1256,11 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>3REP</t>
+          <t>2REP</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>128</v>
+        <v>1000</v>
       </c>
       <c r="C29" t="n">
         <v>8</v>
@@ -1276,52 +1276,52 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G29" t="n">
-        <v>144</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>EC2.1</t>
+          <t>2REP</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="C30" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>read</t>
+          <t>write</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>X205</t>
+          <t>VEGMAN</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G30" t="n">
-        <v>79</v>
+        <v>108</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>EC2.1</t>
+          <t>2REP</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="C31" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -1330,31 +1330,31 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>VEGMAN</t>
+          <t>X205</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G31" t="n">
-        <v>47</v>
+        <v>5100</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>EC2.1</t>
+          <t>2REP</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>128</v>
+        <v>128000</v>
       </c>
       <c r="C32" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>read</t>
+          <t>write</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1363,39 +1363,39 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>748</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>EC2.1</t>
+          <t>2REP</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>128</v>
+        <v>128000</v>
       </c>
       <c r="C33" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>read</t>
+          <t>write</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>VEGMAN</t>
+          <t>X205</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G33" t="n">
-        <v>643</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="34">
@@ -1405,10 +1405,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>8</v>
+        <v>128000</v>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -1417,14 +1417,14 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>X205</t>
+          <t>VEGMAN</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G34" t="n">
-        <v>10.7</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="35">
@@ -1434,10 +1434,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>8</v>
+        <v>128000</v>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -1450,10 +1450,10 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>33</v>
+        <v>4900</v>
       </c>
     </row>
     <row r="36">
@@ -1463,14 +1463,14 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>8</v>
+        <v>128000</v>
       </c>
       <c r="C36" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>write</t>
+          <t>read</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1482,24 +1482,24 @@
         <v>2</v>
       </c>
       <c r="G36" t="n">
-        <v>9.600000000000001</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2REP</t>
+          <t>3REP</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>8</v>
+        <v>128</v>
       </c>
       <c r="C37" t="n">
         <v>8</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>read</t>
+          <t>write</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1511,20 +1511,20 @@
         <v>4</v>
       </c>
       <c r="G37" t="n">
-        <v>81</v>
+        <v>144</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2REP</t>
+          <t>3REP</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="C38" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -1533,27 +1533,27 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>X205</t>
+          <t>VEGMAN</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G38" t="n">
-        <v>50</v>
+        <v>337</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2REP</t>
+          <t>EC2.1</t>
         </is>
       </c>
       <c r="B39" t="n">
         <v>8</v>
       </c>
       <c r="C39" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -1569,53 +1569,53 @@
         <v>2</v>
       </c>
       <c r="G39" t="n">
-        <v>112</v>
+        <v>79</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2REP</t>
+          <t>EC2.1</t>
         </is>
       </c>
       <c r="B40" t="n">
         <v>8</v>
       </c>
       <c r="C40" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>write</t>
+          <t>read</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>X205</t>
+          <t>VEGMAN</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G40" t="n">
-        <v>25</v>
+        <v>47</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>3REP</t>
+          <t>EC2.1</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>8</v>
+        <v>128</v>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>write</t>
+          <t>read</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1627,7 +1627,7 @@
         <v>2</v>
       </c>
       <c r="G41" t="n">
-        <v>5.5</v>
+        <v>748</v>
       </c>
     </row>
     <row r="42">
@@ -1637,26 +1637,26 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>8</v>
+        <v>128</v>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>write</t>
+          <t>read</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>X205</t>
+          <t>VEGMAN</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G42" t="n">
-        <v>11.8</v>
+        <v>643</v>
       </c>
     </row>
     <row r="43">
@@ -1666,14 +1666,14 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>read</t>
+          <t>write</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1685,20 +1685,20 @@
         <v>2</v>
       </c>
       <c r="G43" t="n">
-        <v>13.6</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2REP</t>
+          <t>EC2.1</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="C44" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -1707,31 +1707,31 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>VEGMAN</t>
+          <t>X205</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G44" t="n">
-        <v>57</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2REP</t>
+          <t>EC2.1</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>read</t>
+          <t>write</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -1743,24 +1743,24 @@
         <v>4</v>
       </c>
       <c r="G45" t="n">
-        <v>55</v>
+        <v>84</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2REP</t>
+          <t>EC2.1</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>128</v>
+        <v>1000</v>
       </c>
       <c r="C46" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>write</t>
+          <t>read</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -1772,7 +1772,7 @@
         <v>2</v>
       </c>
       <c r="G46" t="n">
-        <v>369</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="47">
@@ -1782,10 +1782,10 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>128</v>
+        <v>8</v>
       </c>
       <c r="C47" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -1801,7 +1801,7 @@
         <v>2</v>
       </c>
       <c r="G47" t="n">
-        <v>767</v>
+        <v>10.7</v>
       </c>
     </row>
     <row r="48">
@@ -1811,26 +1811,26 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>128</v>
+        <v>8</v>
       </c>
       <c r="C48" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>write</t>
+          <t>read</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>VEGMAN</t>
+          <t>X205</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G48" t="n">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="49">
@@ -1840,10 +1840,10 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>128</v>
+        <v>8</v>
       </c>
       <c r="C49" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -1852,31 +1852,31 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>VEGMAN</t>
+          <t>X205</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G49" t="n">
-        <v>20</v>
+        <v>9.600000000000001</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>3REP</t>
+          <t>2REP</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>128</v>
+        <v>8</v>
       </c>
       <c r="C50" t="n">
         <v>8</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>write</t>
+          <t>read</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -1888,24 +1888,24 @@
         <v>4</v>
       </c>
       <c r="G50" t="n">
-        <v>144</v>
+        <v>81</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>EC2.1</t>
+          <t>2REP</t>
         </is>
       </c>
       <c r="B51" t="n">
         <v>8</v>
       </c>
       <c r="C51" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>read</t>
+          <t>write</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -1917,24 +1917,24 @@
         <v>2</v>
       </c>
       <c r="G51" t="n">
-        <v>79</v>
+        <v>50</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>EC2.1</t>
+          <t>2REP</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>128</v>
+        <v>8</v>
       </c>
       <c r="C52" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>write</t>
+          <t>read</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -1946,24 +1946,24 @@
         <v>2</v>
       </c>
       <c r="G52" t="n">
-        <v>341</v>
+        <v>112</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>EC2.1</t>
+          <t>2REP</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>128</v>
+        <v>8</v>
       </c>
       <c r="C53" t="n">
         <v>15</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>read</t>
+          <t>write</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -1975,20 +1975,20 @@
         <v>2</v>
       </c>
       <c r="G53" t="n">
-        <v>748</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2REP</t>
+          <t>3REP</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>128</v>
+        <v>8</v>
       </c>
       <c r="C54" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -2001,23 +2001,23 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G54" t="n">
-        <v>646</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2REP</t>
+          <t>EC2.1</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>128</v>
+        <v>8</v>
       </c>
       <c r="C55" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -2030,38 +2030,734 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G55" t="n">
-        <v>697</v>
+        <v>11.8</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2REP</t>
+          <t>EC2.1</t>
         </is>
       </c>
       <c r="B56" t="n">
+        <v>8</v>
+      </c>
+      <c r="C56" t="n">
+        <v>4</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>read</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>X205</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>2</v>
+      </c>
+      <c r="G56" t="n">
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2REP</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>8</v>
+      </c>
+      <c r="C57" t="n">
+        <v>8</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>write</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>VEGMAN</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>4</v>
+      </c>
+      <c r="G57" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2REP</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>8</v>
+      </c>
+      <c r="C58" t="n">
+        <v>5</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>read</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>VEGMAN</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>4</v>
+      </c>
+      <c r="G58" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2REP</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
         <v>128</v>
       </c>
-      <c r="C56" t="n">
+      <c r="C59" t="n">
+        <v>8</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>write</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>X205</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>2</v>
+      </c>
+      <c r="G59" t="n">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2REP</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>128</v>
+      </c>
+      <c r="C60" t="n">
         <v>14</v>
       </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>write</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>X205</t>
-        </is>
-      </c>
-      <c r="F56" t="n">
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>write</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>X205</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
+        <v>2</v>
+      </c>
+      <c r="G60" t="n">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2REP</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>128</v>
+      </c>
+      <c r="C61" t="n">
+        <v>7</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>write</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>VEGMAN</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
+        <v>4</v>
+      </c>
+      <c r="G61" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2REP</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>128</v>
+      </c>
+      <c r="C62" t="n">
+        <v>8</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>write</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>VEGMAN</t>
+        </is>
+      </c>
+      <c r="F62" t="n">
+        <v>4</v>
+      </c>
+      <c r="G62" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2REP</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C63" t="n">
+        <v>15</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>write</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>X205</t>
+        </is>
+      </c>
+      <c r="F63" t="n">
+        <v>2</v>
+      </c>
+      <c r="G63" t="n">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2REP</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C64" t="n">
+        <v>7</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>write</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>VEGMAN</t>
+        </is>
+      </c>
+      <c r="F64" t="n">
+        <v>4</v>
+      </c>
+      <c r="G64" t="n">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2REP</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>128000</v>
+      </c>
+      <c r="C65" t="n">
+        <v>15</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>write</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>X205</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
+        <v>2</v>
+      </c>
+      <c r="G65" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2REP</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>128000</v>
+      </c>
+      <c r="C66" t="n">
+        <v>6</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>write</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>VEGMAN</t>
+        </is>
+      </c>
+      <c r="F66" t="n">
+        <v>4</v>
+      </c>
+      <c r="G66" t="n">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2REP</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>128000</v>
+      </c>
+      <c r="C67" t="n">
+        <v>15</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>read</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>X205</t>
+        </is>
+      </c>
+      <c r="F67" t="n">
+        <v>2</v>
+      </c>
+      <c r="G67" t="n">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>3REP</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>128</v>
+      </c>
+      <c r="C68" t="n">
+        <v>8</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>write</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>VEGMAN</t>
+        </is>
+      </c>
+      <c r="F68" t="n">
+        <v>4</v>
+      </c>
+      <c r="G68" t="n">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>EC2.1</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>8</v>
+      </c>
+      <c r="C69" t="n">
+        <v>16</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>read</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>X205</t>
+        </is>
+      </c>
+      <c r="F69" t="n">
+        <v>2</v>
+      </c>
+      <c r="G69" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>EC2.1</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>128</v>
+      </c>
+      <c r="C70" t="n">
+        <v>15</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>write</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>X205</t>
+        </is>
+      </c>
+      <c r="F70" t="n">
+        <v>2</v>
+      </c>
+      <c r="G70" t="n">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>EC2.1</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>128</v>
+      </c>
+      <c r="C71" t="n">
+        <v>15</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>read</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>X205</t>
+        </is>
+      </c>
+      <c r="F71" t="n">
+        <v>2</v>
+      </c>
+      <c r="G71" t="n">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>EC2.1</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C72" t="n">
+        <v>12</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>write</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>X205</t>
+        </is>
+      </c>
+      <c r="F72" t="n">
+        <v>2</v>
+      </c>
+      <c r="G72" t="n">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>EC2.1</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C73" t="n">
+        <v>15</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>write</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>X205</t>
+        </is>
+      </c>
+      <c r="F73" t="n">
+        <v>2</v>
+      </c>
+      <c r="G73" t="n">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>EC2.1</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C74" t="n">
+        <v>16</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>write</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>X205</t>
+        </is>
+      </c>
+      <c r="F74" t="n">
+        <v>2</v>
+      </c>
+      <c r="G74" t="n">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>EC2.1</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C75" t="n">
+        <v>15</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>read</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>X205</t>
+        </is>
+      </c>
+      <c r="F75" t="n">
+        <v>2</v>
+      </c>
+      <c r="G75" t="n">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2REP</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>128</v>
+      </c>
+      <c r="C76" t="n">
+        <v>8</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>write</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>X205</t>
+        </is>
+      </c>
+      <c r="F76" t="n">
         <v>0</v>
       </c>
-      <c r="G56" t="n">
+      <c r="G76" t="n">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2REP</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C77" t="n">
+        <v>8</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>write</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>VEGMAN</t>
+        </is>
+      </c>
+      <c r="F77" t="n">
+        <v>4</v>
+      </c>
+      <c r="G77" t="n">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2REP</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C78" t="n">
+        <v>8</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>write</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>VEGMAN</t>
+        </is>
+      </c>
+      <c r="F78" t="n">
+        <v>4</v>
+      </c>
+      <c r="G78" t="n">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2REP</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>128</v>
+      </c>
+      <c r="C79" t="n">
+        <v>10</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>write</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>X205</t>
+        </is>
+      </c>
+      <c r="F79" t="n">
+        <v>0</v>
+      </c>
+      <c r="G79" t="n">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2REP</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>128</v>
+      </c>
+      <c r="C80" t="n">
+        <v>14</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>write</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>X205</t>
+        </is>
+      </c>
+      <c r="F80" t="n">
+        <v>0</v>
+      </c>
+      <c r="G80" t="n">
         <v>719</v>
       </c>
     </row>

--- a/broken_sizes.xlsx
+++ b/broken_sizes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G80"/>
+  <dimension ref="A1:S94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,2329 +436,7817 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>patch</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>index</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>protection</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>size</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>nodes</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>HW_chassis</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>SSD</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>MB/s</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>avg</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>med</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>p(90)</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>p(95)</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>op/s</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>op/s_loss</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>SUM_MB/s</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>SUM_op/s</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>Correct sizes\sizer_results_16nodes_rep2_12_0.md</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>2REP</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="D2" t="n">
         <v>8</v>
       </c>
-      <c r="C2" t="n">
+      <c r="E2" t="n">
         <v>4</v>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>write</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>X205</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>[29.0]</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>[172.84]</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>[31.69]</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>[88.1]</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>[3600.0]</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>[346.24]</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>[490.43]</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>[3577.079012]</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="R2" t="n">
         <v>29</v>
+      </c>
+      <c r="S2" t="n">
+        <v>3577.079012</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>Correct sizes\sizer_results_16nodes_rep2_12_2.md</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>2REP</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="D3" t="n">
         <v>8</v>
       </c>
-      <c r="C3" t="n">
+      <c r="E3" t="n">
         <v>4</v>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>write</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>X205</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="H3" t="n">
         <v>2</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>[5.3, 5.4]</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>[470.38, 457.44]</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>[34.11, 33.31]</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>[326.84, 317.5]</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>[6090.0, 6060.0]</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>[863.97, 834.45]</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>[1320.0, 1280.0]</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>[646.611116, 664.712459]</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="R3" t="n">
         <v>10.7</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1311.323575</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>Correct sizes\sizer_results_16nodes_rep2_12_2.md</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>2REP</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="D4" t="n">
         <v>8</v>
       </c>
-      <c r="C4" t="n">
+      <c r="E4" t="n">
         <v>4</v>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>read</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>X205</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="H4" t="n">
         <v>2</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>[16.0, 17.0]</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>[157.28, 146.74]</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>[5.57, 5.54]</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>[75.29, 70.09]</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>[5700.0, 5540.0]</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>[336.42, 314.54]</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>[517.61, 489.16]</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>[1967.261206, 2109.048984]</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="R4" t="n">
         <v>33</v>
+      </c>
+      <c r="S4" t="n">
+        <v>4076.31019</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>Correct sizes\sizer_results_16nodes_rep2_12_2.md</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>2REP</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="D5" t="n">
         <v>8</v>
       </c>
-      <c r="C5" t="n">
+      <c r="E5" t="n">
         <v>6</v>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>write</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>X205</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="H5" t="n">
         <v>2</v>
       </c>
-      <c r="G5" t="n">
-        <v>17.8</v>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>[4.9, 4.7]</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>[764.29, 797.79]</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>[33.16, 35.41]</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>[432.99, 483.25]</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>[8690.0, 8640.0]</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>[1910.0, 1930.0]</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>[2490.0, 2490.0]</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>[599.925411, 575.999115]</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="R5" t="n">
+        <v>9.600000000000001</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1175.924526</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>Correct sizes\sizer_results_16nodes_rep2_12_2.md</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>2REP</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="D6" t="n">
         <v>8</v>
       </c>
-      <c r="C6" t="n">
+      <c r="E6" t="n">
         <v>8</v>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>write</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>X205</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="H6" t="n">
         <v>2</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>[14.0, 14.0]</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>[355.37, 355.0]</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>[33.99, 35.18]</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>[210.07, 210.59]</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>[14750.0, 13440.0]</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>[651.33, 647.22]</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>[922.25, 912.18]</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>[1699.637911, 1705.17227]</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="R6" t="n">
         <v>28</v>
+      </c>
+      <c r="S6" t="n">
+        <v>3404.810181</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>Correct sizes\Sizer_results_1.txt</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>2REP</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="D7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E7" t="n">
         <v>8</v>
       </c>
-      <c r="C7" t="n">
-        <v>8</v>
-      </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>read</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>VEGMAN</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>4</v>
-      </c>
-      <c r="G7" t="n">
-        <v>81</v>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>X205</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>[1400.0, 1500.0]</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>[291.56, 287.37]</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>[20.3, 19.84]</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>[238.12, 235.57]</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>[4800.0, 5100.0]</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>[502.4, 497.38]</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>[612.38, 605.53]</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>[1370.221107, 1390.554448]</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="R7" t="n">
+        <v>2900</v>
+      </c>
+      <c r="S7" t="n">
+        <v>2760.775555</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>Correct sizes\sizer_results_8nodes_rep2_12_4.md</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>2REP</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="D8" t="n">
         <v>8</v>
       </c>
-      <c r="C8" t="n">
-        <v>10</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>write</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>X205</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>32</v>
+      <c r="E8" t="n">
+        <v>8</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>read</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>VEGMAN</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>[81.0]</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>[125.29]</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>[14.46]</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>[111.2]</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>[1360.0]</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>[193.1]</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>[233.44]</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>[9860.143373]</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="R8" t="n">
+        <v>81</v>
+      </c>
+      <c r="S8" t="n">
+        <v>9860.143373000001</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>Correct sizes\sizer_results_16nodes_rep2_12_0.md</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>2REP</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="D9" t="n">
         <v>8</v>
       </c>
-      <c r="C9" t="n">
-        <v>14</v>
-      </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="n">
+        <v>10</v>
+      </c>
+      <c r="F9" t="inlineStr">
         <is>
           <t>write</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>X205</t>
         </is>
       </c>
-      <c r="F9" t="n">
+      <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="G9" t="n">
-        <v>27</v>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>[32.0]</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>[393.21]</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>[29.82]</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>[250.48]</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>[6980.0]</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>[770.54]</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>[1100.0]</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>[3934.614188]</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="R9" t="n">
+        <v>32</v>
+      </c>
+      <c r="S9" t="n">
+        <v>3934.614188</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Correct sizes\sizer_results_16nodes_rep2_12_2.md</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>2REP</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="D10" t="n">
         <v>8</v>
       </c>
-      <c r="C10" t="n">
-        <v>14</v>
-      </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="n">
+        <v>13</v>
+      </c>
+      <c r="F10" t="inlineStr">
         <is>
           <t>write</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>X205</t>
         </is>
       </c>
-      <c r="F10" t="n">
+      <c r="H10" t="n">
         <v>2</v>
       </c>
-      <c r="G10" t="n">
-        <v>20</v>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>[25.0, 25.0]</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>[315.65, 327.62]</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>[29.25, 29.63]</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>[173.51, 176.64]</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>[11170.0, 12370.0]</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>[545.06, 596.61]</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>[1030.0, 1060.0]</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>[3099.652251, 2989.984883]</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="R10" t="n">
+        <v>50</v>
+      </c>
+      <c r="S10" t="n">
+        <v>6089.637134000001</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>Correct sizes\sizer_results_16nodes_rep2_12_0.md</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>2REP</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="D11" t="n">
         <v>8</v>
       </c>
-      <c r="C11" t="n">
+      <c r="E11" t="n">
         <v>14</v>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>read</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>write</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
         <is>
           <t>X205</t>
         </is>
       </c>
-      <c r="F11" t="n">
+      <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="G11" t="n">
-        <v>105</v>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>[27.0]</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>[665.37]</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>[27.95]</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>[428.73]</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>[10190.0]</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>[1450.0]</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>[2370.0]</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>[3256.077571]</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="R11" t="n">
+        <v>27</v>
+      </c>
+      <c r="S11" t="n">
+        <v>3256.077571</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>EC2.1</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
+          <t>Correct sizes\sizer_results_16nodes_rep2_12_2.md</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2REP</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
         <v>8</v>
       </c>
-      <c r="C12" t="n">
-        <v>4</v>
-      </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="n">
+        <v>14</v>
+      </c>
+      <c r="F12" t="inlineStr">
         <is>
           <t>write</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>X205</t>
         </is>
       </c>
-      <c r="F12" t="n">
+      <c r="H12" t="n">
         <v>2</v>
       </c>
-      <c r="G12" t="n">
-        <v>11.8</v>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>[10.0, 10.0]</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>[844.1, 849.57]</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>[32.64, 35.56]</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>[689.21, 695.08]</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>[8000.0, 8200.0]</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>[1650.0, 1660.0]</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>[2090.0, 2090.0]</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>[1269.21642, 1261.921216]</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="R12" t="n">
+        <v>20</v>
+      </c>
+      <c r="S12" t="n">
+        <v>2531.137636</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>EC2.1</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
+          <t>Correct sizes\sizer_results_16nodes_rep2_12_0.md</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2REP</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
         <v>8</v>
       </c>
-      <c r="C13" t="n">
-        <v>4</v>
-      </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="n">
+        <v>14</v>
+      </c>
+      <c r="F13" t="inlineStr">
         <is>
           <t>read</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>X205</t>
         </is>
       </c>
-      <c r="F13" t="n">
-        <v>2</v>
-      </c>
-      <c r="G13" t="n">
-        <v>13.6</v>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>[105.0]</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>[168.75]</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>[5.66]</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>[81.33]</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>[5070.0]</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>[409.03]</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>[597.92]</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>[12839.110352]</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>[1.370233]</t>
+        </is>
+      </c>
+      <c r="R13" t="n">
+        <v>105</v>
+      </c>
+      <c r="S13" t="n">
+        <v>12839.110352</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>EC2.1</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
+          <t>Correct sizes\sizer_results_16nodes_rep2_12_2.md</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2REP</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
         <v>8</v>
       </c>
-      <c r="C14" t="n">
-        <v>8</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>write</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
+      <c r="E14" t="n">
+        <v>14</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>read</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
         <is>
           <t>X205</t>
         </is>
       </c>
-      <c r="F14" t="n">
+      <c r="H14" t="n">
         <v>2</v>
       </c>
-      <c r="G14" t="n">
-        <v>26</v>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>[56.0, 56.0]</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>[147.18, 148.97]</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>[5.63, 5.6]</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>[50.76, 51.58]</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>[12220.0, 9330.0]</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>[269.73, 276.81]</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>[548.63, 562.85]</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>[6878.801908, 6807.043604]</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>[0.053209, 0.066649]</t>
+        </is>
+      </c>
+      <c r="R14" t="n">
+        <v>112</v>
+      </c>
+      <c r="S14" t="n">
+        <v>13685.845512</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>EC2.1</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
+          <t>Correct sizes\sizer_results_16nodes_rep2_12_2.md</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2REP</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
         <v>8</v>
       </c>
-      <c r="C15" t="n">
-        <v>12</v>
-      </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="n">
+        <v>15</v>
+      </c>
+      <c r="F15" t="inlineStr">
         <is>
           <t>write</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>X205</t>
         </is>
       </c>
-      <c r="F15" t="n">
+      <c r="H15" t="n">
         <v>2</v>
       </c>
-      <c r="G15" t="n">
-        <v>36</v>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>[13.0, 12.0]</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>[744.03, 770.4]</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>[31.39, 28.08]</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>[302.29, 332.09]</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>[13850.0, 10370.0]</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>[2029.9999999999998, 2080.0]</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>[2820.0, 2870.0]</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>[1539.168897, 1490.153466]</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="R15" t="n">
+        <v>25</v>
+      </c>
+      <c r="S15" t="n">
+        <v>3029.322363</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>EC2.1</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>8</v>
-      </c>
-      <c r="C16" t="n">
-        <v>14</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>write</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
+          <t>Correct sizes\Sizer_results_1.txt</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2REP</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>128</v>
+      </c>
+      <c r="E16" t="n">
+        <v>15</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>read</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
         <is>
           <t>X205</t>
         </is>
       </c>
-      <c r="F16" t="n">
+      <c r="H16" t="n">
         <v>2</v>
       </c>
-      <c r="G16" t="n">
-        <v>41</v>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>[854.0, 854.0]</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>[172.39, 172.38]</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>[10.45, 9.74]</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>[123.98, 125.89]</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>[12810.0, 9900.0]</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>[324.78, 329.45]</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>[408.65, 415.24]</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>[6518.457511, 6517.713245]</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>[0.064967, 0.066614]</t>
+        </is>
+      </c>
+      <c r="R16" t="n">
+        <v>1708</v>
+      </c>
+      <c r="S16" t="n">
+        <v>13036.170756</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>EC2.1</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
+          <t>Correct sizes\sizer_results_16nodes_rep3_12_2.md</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>3REP</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
         <v>8</v>
       </c>
-      <c r="C17" t="n">
-        <v>15</v>
-      </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="n">
+        <v>4</v>
+      </c>
+      <c r="F17" t="inlineStr">
         <is>
           <t>write</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>X205</t>
         </is>
       </c>
-      <c r="F17" t="n">
+      <c r="H17" t="n">
         <v>2</v>
       </c>
-      <c r="G17" t="n">
-        <v>44</v>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>[2.8, 2.7]</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>[853.88, 862.44]</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>[44.13, 43.44]</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>[649.13, 656.73]</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>[8380.0, 8500.0]</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>[1770.0, 1790.0]</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>[2360.0, 2380.0]</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>[335.860841, 332.891912]</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="R17" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="S17" t="n">
+        <v>668.752753</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>EC2.1</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
+          <t>Correct sizes\Sizer results for rep3.txt</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>3REP</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
         <v>8</v>
       </c>
-      <c r="C18" t="n">
-        <v>16</v>
-      </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="n">
+        <v>4</v>
+      </c>
+      <c r="F18" t="inlineStr">
         <is>
           <t>write</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>X205</t>
         </is>
       </c>
-      <c r="F18" t="n">
+      <c r="H18" t="n">
         <v>2</v>
       </c>
-      <c r="G18" t="n">
-        <v>47</v>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>[2.8, 2.7]</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>[853.88, 862.44]</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>[44.13, 43.44]</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>[649.13, 656.73]</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>[8380.0, 8500.0]</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>[1770.0, 1790.0]</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>[2360.0, 2380.0]</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>[335.860841, 332.891912]</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="R18" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="S18" t="n">
+        <v>668.752753</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2REP</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
+          <t>Correct sizes\sizer_results_ec2.1_retest_actual.md</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>EC2.1</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
         <v>8</v>
       </c>
-      <c r="C19" t="n">
-        <v>8</v>
-      </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="n">
+        <v>4</v>
+      </c>
+      <c r="F19" t="inlineStr">
         <is>
           <t>write</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>VEGMAN</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>4</v>
-      </c>
-      <c r="G19" t="n">
-        <v>57</v>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>X205</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>[5.9, 5.9]</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>[437.22, 438.14]</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>[57.34, 48.02]</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>[376.55, 378.12]</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>[1770.0, 2150.0]</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>[772.0, 774.32]</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>[884.57, 887.84]</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>[717.81308, 716.411524]</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="R19" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1434.224604</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2REP</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
+          <t>Correct sizes\sizer_results_ec2.1_retest_actual.md</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>EC2.1</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
         <v>8</v>
       </c>
-      <c r="C20" t="n">
-        <v>12</v>
-      </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="n">
+        <v>4</v>
+      </c>
+      <c r="F20" t="inlineStr">
         <is>
           <t>read</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>X205</t>
         </is>
       </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>131</v>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>[6.8, 6.8]</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>[382.81, 382.83]</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>[13.95, 13.95]</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>[258.86, 258.24]</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>[4290.0, 4490.0]</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>[903.99, 905.24]</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>[1170.0, 1170.0]</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>[834.995436, 834.207076]</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="R20" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1669.202512</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2REP</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
+          <t>Correct sizes\sizer_results_ec2.1_retest_actual.md</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>EC2.1</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
         <v>8</v>
       </c>
-      <c r="C21" t="n">
-        <v>5</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>read</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>VEGMAN</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>4</v>
-      </c>
-      <c r="G21" t="n">
-        <v>55</v>
+      <c r="E21" t="n">
+        <v>8</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>write</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>X205</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>[13.0, 13.0]</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>[393.52, 391.26]</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>[80.42, 77.26]</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>[381.59, 379.41]</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>[2130.0, 2029.9999999999998]</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>[538.39, 535.67]</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>[592.96, 589.54]</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>[1543.326961, 1551.06849]</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="R21" t="n">
+        <v>26</v>
+      </c>
+      <c r="S21" t="n">
+        <v>3094.395451</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2REP</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>128</v>
-      </c>
-      <c r="C22" t="n">
-        <v>6</v>
-      </c>
-      <c r="D22" t="inlineStr">
+          <t>Correct sizes\sizer_results_ec2.1_retest_actual.md</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>EC2.1</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>8</v>
+      </c>
+      <c r="E22" t="n">
+        <v>12</v>
+      </c>
+      <c r="F22" t="inlineStr">
         <is>
           <t>write</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>X205</t>
         </is>
       </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>623</v>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>[18.0, 18.0]</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>[408.94, 413.04]</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>[51.34, 65.77]</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>[374.76, 380.44]</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>[6570.0, 6210.0]</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>[616.16, 616.09]</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>[711.21, 709.02]</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>[2223.022657, 2204.953592]</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="R22" t="n">
+        <v>36</v>
+      </c>
+      <c r="S22" t="n">
+        <v>4427.976248999999</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2REP</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>128</v>
-      </c>
-      <c r="C23" t="n">
-        <v>12</v>
-      </c>
-      <c r="D23" t="inlineStr">
+          <t>Correct sizes\sizer_results_ec2.1_retest_actual.md</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>EC2.1</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>8</v>
+      </c>
+      <c r="E23" t="n">
+        <v>14</v>
+      </c>
+      <c r="F23" t="inlineStr">
         <is>
           <t>write</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>X205</t>
         </is>
       </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>660</v>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>[21.0, 20.0]</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>[419.82, 436.9]</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>[56.03, 57.18]</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>[256.8, 279.18]</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>[16630.0, 18020.0]</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>[710.87, 763.21]</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>[1100.0, 1110.0]</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>[2534.344222, 2433.733554]</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="R23" t="n">
+        <v>41</v>
+      </c>
+      <c r="S23" t="n">
+        <v>4968.077776</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2REP</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>128</v>
-      </c>
-      <c r="C24" t="n">
-        <v>14</v>
-      </c>
-      <c r="D24" t="inlineStr">
+          <t>Correct sizes\sizer_results_ec2.1_retest_actual.md</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>EC2.1</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>8</v>
+      </c>
+      <c r="E24" t="n">
+        <v>15</v>
+      </c>
+      <c r="F24" t="inlineStr">
         <is>
           <t>write</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>X205</t>
         </is>
       </c>
-      <c r="F24" t="n">
+      <c r="H24" t="n">
         <v>2</v>
       </c>
-      <c r="G24" t="n">
-        <v>767</v>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>[22.0, 22.0]</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>[416.87, 419.79]</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>[63.33, 57.1]</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>[381.16, 382.51]</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>[8850.0, 10440.0]</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>[624.33, 631.53]</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>[732.61, 741.02]</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>[2726.625241, 2713.945359]</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="R24" t="n">
+        <v>44</v>
+      </c>
+      <c r="S24" t="n">
+        <v>5440.5706</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2REP</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>128</v>
-      </c>
-      <c r="C25" t="n">
+          <t>Correct sizes\sizer_results_ec2.1_retest_actual.md</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>EC2.1</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
         <v>8</v>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="E25" t="n">
+        <v>16</v>
+      </c>
+      <c r="F25" t="inlineStr">
         <is>
           <t>write</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>VEGMAN</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>X205</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
         <v>2</v>
       </c>
-      <c r="G25" t="n">
-        <v>26</v>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>[23.0, 24.0]</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>[431.06, 419.13]</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>[63.56, 57.74]</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>[344.32, 332.78]</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>[13690.0, 11550.0]</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>[745.33, 727.25]</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>[923.69, 904.96]</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>[2821.109584, 2896.928883]</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="R25" t="n">
+        <v>47</v>
+      </c>
+      <c r="S25" t="n">
+        <v>5718.038467</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
+          <t>Correct sizes\sizer_results_8nodes_rep2 (2).md</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr">
+        <is>
           <t>2REP</t>
         </is>
       </c>
-      <c r="B26" t="n">
-        <v>128</v>
-      </c>
-      <c r="C26" t="n">
-        <v>7</v>
-      </c>
-      <c r="D26" t="inlineStr">
+      <c r="D26" t="n">
+        <v>8</v>
+      </c>
+      <c r="E26" t="n">
+        <v>8</v>
+      </c>
+      <c r="F26" t="inlineStr">
         <is>
           <t>write</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>VEGMAN</t>
         </is>
       </c>
-      <c r="F26" t="n">
+      <c r="H26" t="n">
         <v>4</v>
       </c>
-      <c r="G26" t="n">
-        <v>24</v>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>[57.0]</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>[167.84]</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>[31.06]</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>[146.46]</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>[1860.0]</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>[267.63]</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>[320.53]</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>[7003.309872]</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="R26" t="n">
+        <v>57</v>
+      </c>
+      <c r="S26" t="n">
+        <v>7003.309872</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
+          <t>Correct sizes\sizer_results_16nodes_rep2_12_0.md</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr">
+        <is>
           <t>2REP</t>
         </is>
       </c>
-      <c r="B27" t="n">
-        <v>128</v>
-      </c>
-      <c r="C27" t="n">
+      <c r="D27" t="n">
         <v>8</v>
       </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>write</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>VEGMAN</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>4</v>
-      </c>
-      <c r="G27" t="n">
-        <v>20</v>
+      <c r="E27" t="n">
+        <v>12</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>read</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>X205</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>[131.0]</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>[116.29]</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>[5.64]</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>[58.54]</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>[11060.0]</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>[266.59]</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>[396.53]</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>[15957.195365]</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>[1.689285]</t>
+        </is>
+      </c>
+      <c r="R27" t="n">
+        <v>131</v>
+      </c>
+      <c r="S27" t="n">
+        <v>15957.195365</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
+          <t>Correct sizes\sizer_results_8nodes_rep2 (2).md</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr">
+        <is>
           <t>2REP</t>
         </is>
       </c>
-      <c r="B28" t="n">
-        <v>128</v>
-      </c>
-      <c r="C28" t="n">
-        <v>15</v>
-      </c>
-      <c r="D28" t="inlineStr">
+      <c r="D28" t="n">
+        <v>8</v>
+      </c>
+      <c r="E28" t="n">
+        <v>5</v>
+      </c>
+      <c r="F28" t="inlineStr">
         <is>
           <t>read</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>X205</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>2</v>
-      </c>
-      <c r="G28" t="n">
-        <v>1708</v>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>VEGMAN</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>[55.0]</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>[116.28]</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>[5.21]</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>[74.76]</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>[3110.0]</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>[270.24]</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>[366.43]</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>[6657.23101]</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="R28" t="n">
+        <v>55</v>
+      </c>
+      <c r="S28" t="n">
+        <v>6657.23101</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
+          <t>Correct sizes\sizer_results_8nodes_rep2 (2).md</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr">
+        <is>
           <t>2REP</t>
         </is>
       </c>
-      <c r="B29" t="n">
-        <v>1000</v>
-      </c>
-      <c r="C29" t="n">
+      <c r="D29" t="n">
         <v>8</v>
       </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>write</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
+      <c r="E29" t="n">
+        <v>8</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>read</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
         <is>
           <t>VEGMAN</t>
         </is>
       </c>
-      <c r="F29" t="n">
-        <v>2</v>
-      </c>
-      <c r="G29" t="n">
-        <v>47</v>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>[81.0]</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>[125.29]</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>[14.46]</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>[111.2]</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>[1360.0]</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>[193.1]</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>[233.44]</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>[9860.143373]</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="R29" t="n">
+        <v>81</v>
+      </c>
+      <c r="S29" t="n">
+        <v>9860.143373000001</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
+          <t>Correct sizes\sizer_results_16nodes_rep2_12_0.md</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr">
+        <is>
           <t>2REP</t>
         </is>
       </c>
-      <c r="B30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="C30" t="n">
-        <v>7</v>
-      </c>
-      <c r="D30" t="inlineStr">
+      <c r="D30" t="n">
+        <v>128</v>
+      </c>
+      <c r="E30" t="n">
+        <v>6</v>
+      </c>
+      <c r="F30" t="inlineStr">
         <is>
           <t>write</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>VEGMAN</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>4</v>
-      </c>
-      <c r="G30" t="n">
-        <v>108</v>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>X205</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>[623.0]</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>[188.22]</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>[26.86]</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>[92.48]</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>[11300.0]</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>[252.4]</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>[369.18]</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>[4755.436678]</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="R30" t="n">
+        <v>623</v>
+      </c>
+      <c r="S30" t="n">
+        <v>4755.436678</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
+          <t>Correct sizes\sizer_results_16nodes_rep2_12_0.md</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr">
+        <is>
           <t>2REP</t>
         </is>
       </c>
-      <c r="B31" t="n">
-        <v>1000</v>
-      </c>
-      <c r="C31" t="n">
-        <v>15</v>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>read</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
+      <c r="D31" t="n">
+        <v>128</v>
+      </c>
+      <c r="E31" t="n">
+        <v>12</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>write</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
         <is>
           <t>X205</t>
         </is>
       </c>
-      <c r="F31" t="n">
-        <v>2</v>
-      </c>
-      <c r="G31" t="n">
-        <v>5100</v>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>[660.0]</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>[356.16]</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>[28.04]</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>[100.68]</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>[11040.0]</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>[441.17]</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>[1390.0]</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>[5036.297764]</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="R31" t="n">
+        <v>660</v>
+      </c>
+      <c r="S31" t="n">
+        <v>5036.297764</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
+          <t>Correct sizes\sizer_results_16nodes_rep2_12_2.md</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr">
+        <is>
           <t>2REP</t>
         </is>
       </c>
-      <c r="B32" t="n">
-        <v>128000</v>
-      </c>
-      <c r="C32" t="n">
-        <v>14</v>
-      </c>
-      <c r="D32" t="inlineStr">
+      <c r="D32" t="n">
+        <v>128</v>
+      </c>
+      <c r="E32" t="n">
+        <v>8</v>
+      </c>
+      <c r="F32" t="inlineStr">
         <is>
           <t>write</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>X205</t>
         </is>
       </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>3100</v>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>[181.0, 188.0]</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>[422.6, 407.64]</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>[33.1, 31.64]</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>[214.87, 204.07]</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>[14780.0, 11870.0]</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>[758.63, 742.14]</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>[1410.0, 1370.0]</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>[1383.10943, 1434.481434]</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="R32" t="n">
+        <v>369</v>
+      </c>
+      <c r="S32" t="n">
+        <v>2817.590864</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
+          <t>Correct sizes\Sizer_results_1.txt</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr">
+        <is>
           <t>2REP</t>
         </is>
       </c>
-      <c r="B33" t="n">
-        <v>128000</v>
-      </c>
-      <c r="C33" t="n">
-        <v>15</v>
-      </c>
-      <c r="D33" t="inlineStr">
+      <c r="D33" t="n">
+        <v>128</v>
+      </c>
+      <c r="E33" t="n">
+        <v>14</v>
+      </c>
+      <c r="F33" t="inlineStr">
         <is>
           <t>write</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>X205</t>
         </is>
       </c>
-      <c r="F33" t="n">
+      <c r="H33" t="n">
         <v>2</v>
       </c>
-      <c r="G33" t="n">
-        <v>3000</v>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>[373.0, 394.0]</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>[344.97, 325.27]</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>[25.44, 26.65]</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>[234.98, 224.1]</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>[10120.0, 9870.0]</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>[644.37, 608.33]</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>[866.24, 810.38]</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>[2845.713104, 3005.39883]</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="R33" t="n">
+        <v>767</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5851.111934</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
+          <t>Correct sizes\sizer_results_16nodes_rep2_12_2.md</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr">
+        <is>
           <t>2REP</t>
         </is>
       </c>
-      <c r="B34" t="n">
-        <v>128000</v>
-      </c>
-      <c r="C34" t="n">
-        <v>6</v>
-      </c>
-      <c r="D34" t="inlineStr">
+      <c r="D34" t="n">
+        <v>128</v>
+      </c>
+      <c r="E34" t="n">
+        <v>15</v>
+      </c>
+      <c r="F34" t="inlineStr">
         <is>
           <t>write</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>VEGMAN</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>4</v>
-      </c>
-      <c r="G34" t="n">
-        <v>1900</v>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>X205</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>[425.0, 444.0]</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>[336.03, 320.62]</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>[32.4, 32.73]</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>[188.13, 185.89]</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>[11500.0, 11590.0]</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>[531.26, 470.47]</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>[852.75, 747.61]</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>[3239.453703, 3388.714835]</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="R34" t="n">
+        <v>869</v>
+      </c>
+      <c r="S34" t="n">
+        <v>6628.168538</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
+          <t>Correct sizes\sizer_results_8nodes_rep2_12_2.md</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr">
+        <is>
           <t>2REP</t>
         </is>
       </c>
-      <c r="B35" t="n">
-        <v>128000</v>
-      </c>
-      <c r="C35" t="n">
-        <v>14</v>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>read</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>X205</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>4900</v>
+      <c r="D35" t="n">
+        <v>128</v>
+      </c>
+      <c r="E35" t="n">
+        <v>8</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>write</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>VEGMAN</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>[26.0]</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>[2640.0]</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>[15.4]</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>[120.31]</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>[576000.0]</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>[280.43]</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>[434.44]</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>[197.163659]</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="R35" t="n">
+        <v>26</v>
+      </c>
+      <c r="S35" t="n">
+        <v>197.163659</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
+          <t>Correct sizes\sizer_results_8nodes_rep2 (2).md</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="inlineStr">
+        <is>
           <t>2REP</t>
         </is>
       </c>
-      <c r="B36" t="n">
-        <v>128000</v>
-      </c>
-      <c r="C36" t="n">
-        <v>15</v>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>read</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>X205</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>2</v>
-      </c>
-      <c r="G36" t="n">
-        <v>4500</v>
+      <c r="D36" t="n">
+        <v>128</v>
+      </c>
+      <c r="E36" t="n">
+        <v>7</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>write</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>VEGMAN</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>[24.0]</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>[1520.0]</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>[22.86]</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>[99.57]</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>[271000.0]</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>[240.9]</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>[317.27]</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>[184.029227]</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="R36" t="n">
+        <v>24</v>
+      </c>
+      <c r="S36" t="n">
+        <v>184.029227</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>3REP</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
+          <t>Correct sizes\sizer_results_8nodes_rep2 (2).md</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>2REP</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
         <v>128</v>
       </c>
-      <c r="C37" t="n">
+      <c r="E37" t="n">
         <v>8</v>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>write</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>VEGMAN</t>
         </is>
       </c>
-      <c r="F37" t="n">
+      <c r="H37" t="n">
         <v>4</v>
       </c>
-      <c r="G37" t="n">
-        <v>144</v>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>[20.0]</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>[4730.0]</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>[19.24]</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>[57.28]</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>[597000.0]</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>[185.17]</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>[270.58]</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>[149.253063]</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="R37" t="n">
+        <v>20</v>
+      </c>
+      <c r="S37" t="n">
+        <v>149.253063</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>3REP</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
+          <t>Correct sizes\sizer_results_16nodes_rep2_12_2.md</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>2REP</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
         <v>1000</v>
       </c>
-      <c r="C38" t="n">
-        <v>8</v>
-      </c>
-      <c r="D38" t="inlineStr">
+      <c r="E38" t="n">
+        <v>15</v>
+      </c>
+      <c r="F38" t="inlineStr">
         <is>
           <t>write</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>VEGMAN</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>4</v>
-      </c>
-      <c r="G38" t="n">
-        <v>337</v>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>X205</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>[1200.0, 1200.0]</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>[630.05, 624.98]</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>[79.84, 81.17]</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>[524.56, 516.02]</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>[5980.0, 6270.0]</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>[1090.0, 1080.0]</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>[1360.0, 1370.0]</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>[1160.258289, 1168.294319]</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="R38" t="n">
+        <v>2400</v>
+      </c>
+      <c r="S38" t="n">
+        <v>2328.552608</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>EC2.1</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
+          <t>Correct sizes\sizer_results_8nodes_rep2_12_2.md</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>2REP</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E39" t="n">
         <v>8</v>
       </c>
-      <c r="C39" t="n">
-        <v>16</v>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>read</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>X205</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>write</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>VEGMAN</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
         <v>2</v>
       </c>
-      <c r="G39" t="n">
-        <v>79</v>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>[47.0]</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>[3890.0]</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>[48.08]</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>[141.22]</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>[542000.0]</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>[417.23]</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>[24220.0]</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>[44.375259]</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="R39" t="n">
+        <v>47</v>
+      </c>
+      <c r="S39" t="n">
+        <v>44.375259</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>EC2.1</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>8</v>
-      </c>
-      <c r="C40" t="n">
-        <v>8</v>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>read</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
+          <t>Correct sizes\sizer_results_8nodes_rep2 (2).md</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>2REP</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E40" t="n">
+        <v>7</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>write</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
         <is>
           <t>VEGMAN</t>
         </is>
       </c>
-      <c r="F40" t="n">
+      <c r="H40" t="n">
         <v>4</v>
       </c>
-      <c r="G40" t="n">
-        <v>47</v>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>[108.0]</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>[2980.0]</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>[43.68]</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>[150.62]</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>[518000.0]</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>[464.69]</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>[680.16]</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>[102.482756]</t>
+        </is>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="R40" t="n">
+        <v>108</v>
+      </c>
+      <c r="S40" t="n">
+        <v>102.482756</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>EC2.1</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>128</v>
-      </c>
-      <c r="C41" t="n">
+          <t>Correct sizes\sizer_results_16nodes_rep2_12_2.md</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>2REP</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E41" t="n">
         <v>15</v>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>read</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>X205</t>
         </is>
       </c>
-      <c r="F41" t="n">
+      <c r="H41" t="n">
         <v>2</v>
       </c>
-      <c r="G41" t="n">
-        <v>748</v>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>[2500.0, 2600.0]</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>[308.08, 305.87]</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>[25.92, 25.36]</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>[269.09, 267.11]</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>[3710.0, 3650.0]</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>[532.69, 528.32]</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>[640.94, 636.35]</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>[2429.066386, 2449.291112]</t>
+        </is>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="R41" t="n">
+        <v>5100</v>
+      </c>
+      <c r="S41" t="n">
+        <v>4878.357497999999</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>EC2.1</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>128</v>
-      </c>
-      <c r="C42" t="n">
-        <v>8</v>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>read</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>VEGMAN</t>
-        </is>
-      </c>
-      <c r="F42" t="n">
-        <v>4</v>
-      </c>
-      <c r="G42" t="n">
-        <v>643</v>
+          <t>Correct sizes\sizer_results_16nodes_rep2_12_0.md</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr"/>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>2REP</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>128000</v>
+      </c>
+      <c r="E42" t="n">
+        <v>14</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>write</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>X205</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>[3100.0]</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>[17660.0]</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>[5930.0]</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>[15390.0]</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>[201000.0]</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>[27860.0]</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>[32800.0]</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>[22.799406]</t>
+        </is>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="R42" t="n">
+        <v>3100</v>
+      </c>
+      <c r="S42" t="n">
+        <v>22.799406</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>EC2.1</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>1000</v>
-      </c>
-      <c r="C43" t="n">
+          <t>Correct sizes\sizer_results_16nodes_rep2_12_2.md</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr"/>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>2REP</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>128000</v>
+      </c>
+      <c r="E43" t="n">
         <v>15</v>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>write</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>X205</t>
         </is>
       </c>
-      <c r="F43" t="n">
+      <c r="H43" t="n">
         <v>2</v>
       </c>
-      <c r="G43" t="n">
-        <v>2300</v>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>[1200.0, 1200.0]</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>[23880.0, 23840.0]</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>[7610.0, 7010.0]</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>[19780.0, 19740.0]</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>[57430.0, 56650.0]</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>[39610.0, 39010.0]</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>[42970.0, 42570.0]</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>[9.015756, 9.007967]</t>
+        </is>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="R43" t="n">
+        <v>2400</v>
+      </c>
+      <c r="S43" t="n">
+        <v>18.023723</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>EC2.1</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
-        <v>1000</v>
-      </c>
-      <c r="C44" t="n">
-        <v>16</v>
-      </c>
-      <c r="D44" t="inlineStr">
+          <t>Correct sizes\sizer_results_8nodes_rep2 (2).md</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr"/>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>2REP</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>128000</v>
+      </c>
+      <c r="E44" t="n">
+        <v>6</v>
+      </c>
+      <c r="F44" t="inlineStr">
         <is>
           <t>write</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>X205</t>
-        </is>
-      </c>
-      <c r="F44" t="n">
-        <v>2</v>
-      </c>
-      <c r="G44" t="n">
-        <v>2800</v>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>VEGMAN</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>[1900.0]</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>[12350.0]</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>[3340.0]</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>[10050.0]</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>[83000.0]</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>[20650.0]</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>[26560.0]</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>[13.858888]</t>
+        </is>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="R44" t="n">
+        <v>1900</v>
+      </c>
+      <c r="S44" t="n">
+        <v>13.858888</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>EC2.1</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
-        <v>1000</v>
-      </c>
-      <c r="C45" t="n">
-        <v>8</v>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>write</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>VEGMAN</t>
-        </is>
-      </c>
-      <c r="F45" t="n">
-        <v>4</v>
-      </c>
-      <c r="G45" t="n">
-        <v>84</v>
+          <t>Correct sizes\sizer_results_16nodes_rep2_12_0.md</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr"/>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>2REP</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>128000</v>
+      </c>
+      <c r="E45" t="n">
+        <v>14</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>read</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>X205</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>[4900.0]</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>[11440.0]</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>[2310.0]</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>[10950.0]</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>[40870.0]</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>[13380.0]</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>[15700.0]</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>[36.294092]</t>
+        </is>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="R45" t="n">
+        <v>4900</v>
+      </c>
+      <c r="S45" t="n">
+        <v>36.294092</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>EC2.1</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>1000</v>
-      </c>
-      <c r="C46" t="n">
+          <t>Correct sizes\Sizer_results_1.txt</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr"/>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>2REP</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>128000</v>
+      </c>
+      <c r="E46" t="n">
         <v>15</v>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>read</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>X205</t>
         </is>
       </c>
-      <c r="F46" t="n">
+      <c r="H46" t="n">
         <v>2</v>
       </c>
-      <c r="G46" t="n">
-        <v>2400</v>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>[2200.0, 2300.0]</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>[13570.0, 12910.0]</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>[1860.0, 1930.0]</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>[13080.0, 12370.0]</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>[85000.0, 81000.0]</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>[20800.0, 19680.0]</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>[23530.0, 22190.0]</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>[16.199118, 17.105048]</t>
+        </is>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="R46" t="n">
+        <v>4500</v>
+      </c>
+      <c r="S46" t="n">
+        <v>33.304166</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2REP</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
+          <t>Correct sizes\sizer_results_8nodes_rep3.md</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr"/>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>3REP</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>128</v>
+      </c>
+      <c r="E47" t="n">
         <v>8</v>
       </c>
-      <c r="C47" t="n">
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>write</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>VEGMAN</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
         <v>4</v>
       </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>write</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>X205</t>
-        </is>
-      </c>
-      <c r="F47" t="n">
-        <v>2</v>
-      </c>
-      <c r="G47" t="n">
-        <v>10.7</v>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>[144.0]</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>[496.5]</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>[19.06]</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>[79.58]</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>[426000.0]</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>[237.54]</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>[301.33]</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>[1096.078514]</t>
+        </is>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="R47" t="n">
+        <v>144</v>
+      </c>
+      <c r="S47" t="n">
+        <v>1096.078514</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2REP</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
+          <t>Correct sizes\sizer_results_8nodes_rep3_12_4.md</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr"/>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>3REP</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E48" t="n">
         <v>8</v>
       </c>
-      <c r="C48" t="n">
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>write</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>VEGMAN</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
         <v>4</v>
       </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>read</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>X205</t>
-        </is>
-      </c>
-      <c r="F48" t="n">
-        <v>2</v>
-      </c>
-      <c r="G48" t="n">
-        <v>33</v>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>[337.0]</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>[1420.0]</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>[48.8]</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>[198.98]</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>[307000.0]</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>[388.44]</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>[472.34]</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>[321.548394]</t>
+        </is>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="R48" t="n">
+        <v>337</v>
+      </c>
+      <c r="S48" t="n">
+        <v>321.548394</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2REP</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
+          <t>Correct sizes\sizer_results_16nodes_ec2.1_12_2.md</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr"/>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>EC2.1</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
         <v>8</v>
       </c>
-      <c r="C49" t="n">
-        <v>6</v>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>write</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
+      <c r="E49" t="n">
+        <v>16</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>read</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
         <is>
           <t>X205</t>
         </is>
       </c>
-      <c r="F49" t="n">
+      <c r="H49" t="n">
         <v>2</v>
       </c>
-      <c r="G49" t="n">
-        <v>9.600000000000001</v>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>[39.0, 40.0]</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>[257.82, 254.45]</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>[12.91, 12.99]</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>[124.68, 123.92]</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>[23780.0, 27510.0]</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>[394.55, 388.45]</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>[746.8, 706.18]</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>[4804.439467, 4860.130475]</t>
+        </is>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>[2.539048, 2.649409]</t>
+        </is>
+      </c>
+      <c r="R49" t="n">
+        <v>79</v>
+      </c>
+      <c r="S49" t="n">
+        <v>9664.569942</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2REP</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
+          <t>Correct sizes\sizer_results_8nodes_ec2.1_12_4.md</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr"/>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>EC2.1</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
         <v>8</v>
       </c>
-      <c r="C50" t="n">
+      <c r="E50" t="n">
         <v>8</v>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>read</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>VEGMAN</t>
         </is>
       </c>
-      <c r="F50" t="n">
+      <c r="H50" t="n">
         <v>4</v>
       </c>
-      <c r="G50" t="n">
-        <v>81</v>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>[47.0]</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>[144.79]</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>[11.86]</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>[124.43]</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>[5060.0]</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>[287.48]</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>[340.8]</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>[5722.432687]</t>
+        </is>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>[5824.66141]</t>
+        </is>
+      </c>
+      <c r="R50" t="n">
+        <v>47</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5722.432687</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2REP</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
+          <t>Correct sizes\sizer_results_ec2.1_retest_actual.md</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr"/>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>EC2.1</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>128</v>
+      </c>
+      <c r="E51" t="n">
         <v>8</v>
       </c>
-      <c r="C51" t="n">
-        <v>13</v>
-      </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>write</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>X205</t>
         </is>
       </c>
-      <c r="F51" t="n">
+      <c r="H51" t="n">
         <v>2</v>
       </c>
-      <c r="G51" t="n">
-        <v>50</v>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>[172.0, 172.0]</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>[448.2, 448.52]</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>[83.25, 84.18]</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>[433.67, 434.16]</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>[2220.0, 2060.0]</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>[625.84, 626.23]</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>[693.27, 694.13]</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>[1310.664615, 1309.494909]</t>
+        </is>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="R51" t="n">
+        <v>344</v>
+      </c>
+      <c r="S51" t="n">
+        <v>2620.159524</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2REP</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>8</v>
-      </c>
-      <c r="C52" t="n">
-        <v>14</v>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>read</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
+          <t>Correct sizes\sizer_results_ec2.1_retest_actual.md</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr"/>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>EC2.1</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>128</v>
+      </c>
+      <c r="E52" t="n">
+        <v>12</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>write</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
         <is>
           <t>X205</t>
         </is>
       </c>
-      <c r="F52" t="n">
+      <c r="H52" t="n">
         <v>2</v>
       </c>
-      <c r="G52" t="n">
-        <v>112</v>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>[254.0, 248.0]</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>[454.93, 466.4]</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>[78.48, 71.62]</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>[420.69, 434.48]</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>[6040.0, 5610.0]</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>[689.15, 698.18]</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>[795.88, 798.9]</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>[1936.978889, 1889.684348]</t>
+        </is>
+      </c>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="R52" t="n">
+        <v>502</v>
+      </c>
+      <c r="S52" t="n">
+        <v>3826.663237</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2REP</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>8</v>
-      </c>
-      <c r="C53" t="n">
-        <v>15</v>
-      </c>
-      <c r="D53" t="inlineStr">
+          <t>Correct sizes\sizer_results_ec2.1_retest_actual.md</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr"/>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>EC2.1</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>128</v>
+      </c>
+      <c r="E53" t="n">
+        <v>14</v>
+      </c>
+      <c r="F53" t="inlineStr">
         <is>
           <t>write</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>X205</t>
         </is>
       </c>
-      <c r="F53" t="n">
+      <c r="H53" t="n">
         <v>2</v>
       </c>
-      <c r="G53" t="n">
-        <v>25</v>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>[291.0, 299.0]</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>[463.27, 450.27]</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>[74.34, 82.96]</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>[432.94, 422.11]</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>[10980.0, 10380.0]</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>[675.6, 651.37]</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>[770.81, 739.74]</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>[2219.208726, 2283.646576]</t>
+        </is>
+      </c>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="R53" t="n">
+        <v>590</v>
+      </c>
+      <c r="S53" t="n">
+        <v>4502.855302</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>3REP</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>8</v>
-      </c>
-      <c r="C54" t="n">
-        <v>4</v>
-      </c>
-      <c r="D54" t="inlineStr">
+          <t>Correct sizes\sizer_results_ec2.1_retest_actual.md</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr"/>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>EC2.1</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>128</v>
+      </c>
+      <c r="E54" t="n">
+        <v>15</v>
+      </c>
+      <c r="F54" t="inlineStr">
         <is>
           <t>write</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>X205</t>
         </is>
       </c>
-      <c r="F54" t="n">
+      <c r="H54" t="n">
         <v>2</v>
       </c>
-      <c r="G54" t="n">
-        <v>5.5</v>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>[341.0]</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>[422.13]</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>[53.14]</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>[354.47]</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>[3370.0]</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>[798.85]</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>[975.76]</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>[2602.986882]</t>
+        </is>
+      </c>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="R54" t="n">
+        <v>341</v>
+      </c>
+      <c r="S54" t="n">
+        <v>2602.986882</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
+          <t>Correct sizes\sizer_results_ec2.1_retest_actual.md</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr"/>
+      <c r="C55" t="inlineStr">
+        <is>
           <t>EC2.1</t>
         </is>
       </c>
-      <c r="B55" t="n">
-        <v>8</v>
-      </c>
-      <c r="C55" t="n">
-        <v>4</v>
-      </c>
-      <c r="D55" t="inlineStr">
+      <c r="D55" t="n">
+        <v>128</v>
+      </c>
+      <c r="E55" t="n">
+        <v>16</v>
+      </c>
+      <c r="F55" t="inlineStr">
         <is>
           <t>write</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>X205</t>
         </is>
       </c>
-      <c r="F55" t="n">
+      <c r="H55" t="n">
         <v>2</v>
       </c>
-      <c r="G55" t="n">
-        <v>11.8</v>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>[325.0, 326.0]</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>[473.98, 472.67]</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>[72.77, 64.58]</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>[426.53, 429.15]</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>[15390.0, 11790.0]</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>[717.55, 711.95]</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>[840.7, 826.98]</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>[2480.732449, 2486.294838]</t>
+        </is>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="R55" t="n">
+        <v>651</v>
+      </c>
+      <c r="S55" t="n">
+        <v>4967.027287</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
+          <t>Correct sizes\sizer_results_16nodes_ec2.1_12_2.md</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr"/>
+      <c r="C56" t="inlineStr">
+        <is>
           <t>EC2.1</t>
         </is>
       </c>
-      <c r="B56" t="n">
-        <v>8</v>
-      </c>
-      <c r="C56" t="n">
-        <v>4</v>
-      </c>
-      <c r="D56" t="inlineStr">
+      <c r="D56" t="n">
+        <v>128</v>
+      </c>
+      <c r="E56" t="n">
+        <v>15</v>
+      </c>
+      <c r="F56" t="inlineStr">
         <is>
           <t>read</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>X205</t>
         </is>
       </c>
-      <c r="F56" t="n">
+      <c r="H56" t="n">
         <v>2</v>
       </c>
-      <c r="G56" t="n">
-        <v>13.6</v>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>[374.0, 374.0]</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>[367.32, 366.56]</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>[15.68, 16.16]</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>[287.33, 285.41]</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>[10800.0, 11040.0]</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>[774.39, 775.19]</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>[978.2, 981.11]</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>[2855.666756, 2856.210792]</t>
+        </is>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="R56" t="n">
+        <v>748</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5711.877548</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2REP</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
+          <t>Correct sizes\sizer_results_8nodes_ec2.1_12_4.md</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr"/>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>EC2.1</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>128</v>
+      </c>
+      <c r="E57" t="n">
         <v>8</v>
       </c>
-      <c r="C57" t="n">
-        <v>8</v>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>write</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>read</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
         <is>
           <t>VEGMAN</t>
         </is>
       </c>
-      <c r="F57" t="n">
+      <c r="H57" t="n">
         <v>4</v>
       </c>
-      <c r="G57" t="n">
-        <v>57</v>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>[643.0]</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>[184.27]</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>[13.26]</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>[165.57]</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>[1170.0]</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>[352.41]</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>[410.15]</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>[4907.699226]</t>
+        </is>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>[4339.675737]</t>
+        </is>
+      </c>
+      <c r="R57" t="n">
+        <v>643</v>
+      </c>
+      <c r="S57" t="n">
+        <v>4907.699226</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2REP</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>8</v>
-      </c>
-      <c r="C58" t="n">
-        <v>5</v>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>read</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>VEGMAN</t>
-        </is>
-      </c>
-      <c r="F58" t="n">
-        <v>4</v>
-      </c>
-      <c r="G58" t="n">
-        <v>55</v>
+          <t>Correct sizes\sizer_results_ec2.1_retest_actual.md</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr"/>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>EC2.1</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E58" t="n">
+        <v>12</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>write</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>X205</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>2</v>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>[494.0, 499.0]</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>[1250.0, 1240.0]</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>[60.72, 67.03]</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>[1160.0, 1140.0]</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>[6400.0, 7090.0]</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>[2170.0, 2160.0]</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>[2510.0, 2490.0]</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>[470.98126, 476.040066]</t>
+        </is>
+      </c>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="R58" t="n">
+        <v>993</v>
+      </c>
+      <c r="S58" t="n">
+        <v>947.021326</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2REP</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>128</v>
-      </c>
-      <c r="C59" t="n">
-        <v>8</v>
-      </c>
-      <c r="D59" t="inlineStr">
+          <t>Correct sizes\sizer_results_16nodes_ec2.1_12_2.md</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr"/>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>EC2.1</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E59" t="n">
+        <v>15</v>
+      </c>
+      <c r="F59" t="inlineStr">
         <is>
           <t>write</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>X205</t>
         </is>
       </c>
-      <c r="F59" t="n">
+      <c r="H59" t="n">
         <v>2</v>
       </c>
-      <c r="G59" t="n">
-        <v>369</v>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>[1200.0, 1100.0]</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>[650.22, 667.65]</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>[64.6, 65.79]</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>[526.65, 542.97]</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>[15180.0, 14760.0]</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>[980.86, 1010.0]</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>[1200.0, 1230.0]</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>[1125.650271, 1095.83049]</t>
+        </is>
+      </c>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="R59" t="n">
+        <v>2300</v>
+      </c>
+      <c r="S59" t="n">
+        <v>2221.480761</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2REP</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>128</v>
-      </c>
-      <c r="C60" t="n">
-        <v>14</v>
-      </c>
-      <c r="D60" t="inlineStr">
+          <t>Correct sizes\sizer_results_16nodes_ec2.1_12_2.md</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr"/>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>EC2.1</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E60" t="n">
+        <v>16</v>
+      </c>
+      <c r="F60" t="inlineStr">
         <is>
           <t>write</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>X205</t>
         </is>
       </c>
-      <c r="F60" t="n">
+      <c r="H60" t="n">
         <v>2</v>
       </c>
-      <c r="G60" t="n">
-        <v>767</v>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>[1400.0, 1400.0]</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>[724.48, 715.34]</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>[109.93, 113.09]</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>[695.83, 686.7]</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>[4100.0, 4640.0]</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>[1060.0, 1060.0]</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>[1190.0, 1190.0]</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>[1078.814015, 1091.610334]</t>
+        </is>
+      </c>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="R60" t="n">
+        <v>2800</v>
+      </c>
+      <c r="S60" t="n">
+        <v>2170.424349</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2REP</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>128</v>
-      </c>
-      <c r="C61" t="n">
-        <v>7</v>
-      </c>
-      <c r="D61" t="inlineStr">
+          <t>Correct sizes\sizer_results_8nodes_ec2.1_12_4.md</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr"/>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>EC2.1</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E61" t="n">
+        <v>8</v>
+      </c>
+      <c r="F61" t="inlineStr">
         <is>
           <t>write</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>VEGMAN</t>
         </is>
       </c>
-      <c r="F61" t="n">
+      <c r="H61" t="n">
         <v>4</v>
       </c>
-      <c r="G61" t="n">
-        <v>24</v>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>[84.0]</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>[3450.0]</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>[51.64]</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>[207.31]</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>[509000.0]</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>[712.9]</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>[1100.0]</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>[80.312186]</t>
+        </is>
+      </c>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="R61" t="n">
+        <v>84</v>
+      </c>
+      <c r="S61" t="n">
+        <v>80.312186</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2REP</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>128</v>
-      </c>
-      <c r="C62" t="n">
-        <v>8</v>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>write</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>VEGMAN</t>
-        </is>
-      </c>
-      <c r="F62" t="n">
-        <v>4</v>
-      </c>
-      <c r="G62" t="n">
-        <v>20</v>
+          <t>Correct sizes\sizer_results_16nodes_ec2.1_12_2.md</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr"/>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>EC2.1</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E62" t="n">
+        <v>15</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>read</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>X205</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>2</v>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>[1200.0, 1200.0]</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>[671.2, 668.43]</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>[30.53, 32.33]</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>[565.41, 563.4]</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>[5250.0, 4960.0]</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>[1350.0, 1350.0]</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>[1640.0, 1640.0]</t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>[1116.387731, 1118.091057]</t>
+        </is>
+      </c>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="R62" t="n">
+        <v>2400</v>
+      </c>
+      <c r="S62" t="n">
+        <v>2234.478788</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
+          <t>Correct sizes\Sizer_results_1.txt</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr"/>
+      <c r="C63" t="inlineStr">
+        <is>
           <t>2REP</t>
         </is>
       </c>
-      <c r="B63" t="n">
-        <v>1000</v>
-      </c>
-      <c r="C63" t="n">
-        <v>15</v>
-      </c>
-      <c r="D63" t="inlineStr">
+      <c r="D63" t="n">
+        <v>8</v>
+      </c>
+      <c r="E63" t="n">
+        <v>4</v>
+      </c>
+      <c r="F63" t="inlineStr">
         <is>
           <t>write</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>X205</t>
         </is>
       </c>
-      <c r="F63" t="n">
+      <c r="H63" t="n">
         <v>2</v>
       </c>
-      <c r="G63" t="n">
-        <v>2400</v>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>[5.3, 5.4]</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>[470.38, 457.44]</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>[34.11, 33.31]</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>[326.84, 317.5]</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>[6090.0, 6060.0]</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>[863.97, 834.45]</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>[1320.0, 1280.0]</t>
+        </is>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>[646.611116, 664.712459]</t>
+        </is>
+      </c>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="R63" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="S63" t="n">
+        <v>1311.323575</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
+          <t>Correct sizes\Sizer_results_1.txt</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr"/>
+      <c r="C64" t="inlineStr">
+        <is>
           <t>2REP</t>
         </is>
       </c>
-      <c r="B64" t="n">
-        <v>1000</v>
-      </c>
-      <c r="C64" t="n">
-        <v>7</v>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>write</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>VEGMAN</t>
-        </is>
-      </c>
-      <c r="F64" t="n">
+      <c r="D64" t="n">
+        <v>8</v>
+      </c>
+      <c r="E64" t="n">
         <v>4</v>
       </c>
-      <c r="G64" t="n">
-        <v>108</v>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>read</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>X205</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>2</v>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>[16.0, 17.0]</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>[157.28, 146.74]</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>[5.57, 5.54]</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>[75.29, 70.09]</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>[5700.0, 5540.0]</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>[336.42, 314.54]</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>[517.61, 489.16]</t>
+        </is>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>[1967.261206, 2109.048984]</t>
+        </is>
+      </c>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="R64" t="n">
+        <v>33</v>
+      </c>
+      <c r="S64" t="n">
+        <v>4076.31019</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
+          <t>Correct sizes\Sizer_results_1.txt</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr"/>
+      <c r="C65" t="inlineStr">
+        <is>
           <t>2REP</t>
         </is>
       </c>
-      <c r="B65" t="n">
-        <v>128000</v>
-      </c>
-      <c r="C65" t="n">
-        <v>15</v>
-      </c>
-      <c r="D65" t="inlineStr">
+      <c r="D65" t="n">
+        <v>8</v>
+      </c>
+      <c r="E65" t="n">
+        <v>6</v>
+      </c>
+      <c r="F65" t="inlineStr">
         <is>
           <t>write</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>X205</t>
         </is>
       </c>
-      <c r="F65" t="n">
+      <c r="H65" t="n">
         <v>2</v>
       </c>
-      <c r="G65" t="n">
-        <v>3000</v>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>[8.9, 8.9]</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>[418.76, 417.06]</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>[39.17, 37.17]</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>[249.93, 249.49]</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>[6560.0, 6940.0]</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>[837.43, 834.61]</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>[1140.0, 1130.0]</t>
+        </is>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>[1087.788684, 1091.935714]</t>
+        </is>
+      </c>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="R65" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="S65" t="n">
+        <v>2179.724398</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
+          <t>Correct sizes\Sizer_results_1.txt</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr"/>
+      <c r="C66" t="inlineStr">
+        <is>
           <t>2REP</t>
         </is>
       </c>
-      <c r="B66" t="n">
-        <v>128000</v>
-      </c>
-      <c r="C66" t="n">
-        <v>6</v>
-      </c>
-      <c r="D66" t="inlineStr">
+      <c r="D66" t="n">
+        <v>8</v>
+      </c>
+      <c r="E66" t="n">
+        <v>8</v>
+      </c>
+      <c r="F66" t="inlineStr">
         <is>
           <t>write</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>VEGMAN</t>
-        </is>
-      </c>
-      <c r="F66" t="n">
-        <v>4</v>
-      </c>
-      <c r="G66" t="n">
-        <v>1900</v>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>X205</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>2</v>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>[14.0, 14.0]</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>[355.37, 355.0]</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>[33.99, 35.18]</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>[210.07, 210.59]</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>[14750.0, 13440.0]</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>[651.33, 647.22]</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>[922.25, 912.18]</t>
+        </is>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>[1699.637911, 1705.17227]</t>
+        </is>
+      </c>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="R66" t="n">
+        <v>28</v>
+      </c>
+      <c r="S66" t="n">
+        <v>3404.810181</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2REP</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
-        <v>128000</v>
-      </c>
-      <c r="C67" t="n">
-        <v>15</v>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>read</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
+          <t>Correct sizes\sizer_results_16nodes_ec2.1_12_2.md</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr"/>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>EC2.1</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>8</v>
+      </c>
+      <c r="E67" t="n">
+        <v>4</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>write</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
         <is>
           <t>X205</t>
         </is>
       </c>
-      <c r="F67" t="n">
+      <c r="H67" t="n">
         <v>2</v>
       </c>
-      <c r="G67" t="n">
-        <v>4500</v>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>[5.9, 5.9]</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>[437.22, 438.14]</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>[57.34, 48.02]</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>[376.55, 378.12]</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>[1770.0, 2150.0]</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>[772.0, 774.32]</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>[884.57, 887.84]</t>
+        </is>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>[717.81308, 716.411524]</t>
+        </is>
+      </c>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="R67" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="S67" t="n">
+        <v>1434.224604</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>3REP</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>128</v>
-      </c>
-      <c r="C68" t="n">
+          <t>Correct sizes\sizer_results_16nodes_ec2.1_12_2.md</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr"/>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>EC2.1</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
         <v>8</v>
       </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>write</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>VEGMAN</t>
-        </is>
-      </c>
-      <c r="F68" t="n">
+      <c r="E68" t="n">
         <v>4</v>
       </c>
-      <c r="G68" t="n">
-        <v>144</v>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>read</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>X205</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>2</v>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>[6.8, 6.8]</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>[382.81, 382.83]</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>[13.95, 13.95]</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>[258.86, 258.24]</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>[4290.0, 4490.0]</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>[903.99, 905.24]</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>[1170.0, 1170.0]</t>
+        </is>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>[834.995436, 834.207076]</t>
+        </is>
+      </c>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="R68" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="S68" t="n">
+        <v>1669.202512</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
+          <t>Correct sizes\sizer_results_16nodes_ec2.1_12_2.md</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr"/>
+      <c r="C69" t="inlineStr">
+        <is>
           <t>EC2.1</t>
         </is>
       </c>
-      <c r="B69" t="n">
+      <c r="D69" t="n">
         <v>8</v>
       </c>
-      <c r="C69" t="n">
-        <v>16</v>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>read</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
+      <c r="E69" t="n">
+        <v>8</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>write</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
         <is>
           <t>X205</t>
         </is>
       </c>
-      <c r="F69" t="n">
+      <c r="H69" t="n">
         <v>2</v>
       </c>
-      <c r="G69" t="n">
-        <v>79</v>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>[13.0, 13.0]</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>[393.52, 391.26]</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>[80.42, 77.26]</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>[381.59, 379.41]</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>[2130.0, 2029.9999999999998]</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>[538.39, 535.67]</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>[592.96, 589.54]</t>
+        </is>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>[1543.326961, 1551.06849]</t>
+        </is>
+      </c>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="R69" t="n">
+        <v>26</v>
+      </c>
+      <c r="S69" t="n">
+        <v>3094.395451</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
+          <t>Correct sizes\sizer_results_16nodes_ec2.1_12_2.md</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr"/>
+      <c r="C70" t="inlineStr">
+        <is>
           <t>EC2.1</t>
         </is>
       </c>
-      <c r="B70" t="n">
-        <v>128</v>
-      </c>
-      <c r="C70" t="n">
-        <v>15</v>
-      </c>
-      <c r="D70" t="inlineStr">
+      <c r="D70" t="n">
+        <v>8</v>
+      </c>
+      <c r="E70" t="n">
+        <v>12</v>
+      </c>
+      <c r="F70" t="inlineStr">
         <is>
           <t>write</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>X205</t>
         </is>
       </c>
-      <c r="F70" t="n">
+      <c r="H70" t="n">
         <v>2</v>
       </c>
-      <c r="G70" t="n">
-        <v>341</v>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>[18.0, 18.0]</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>[408.94, 413.04]</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>[51.34, 65.77]</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>[374.76, 380.44]</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>[6570.0, 6210.0]</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>[616.16, 616.09]</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>[711.21, 709.02]</t>
+        </is>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>[2223.022657, 2204.953592]</t>
+        </is>
+      </c>
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="R70" t="n">
+        <v>36</v>
+      </c>
+      <c r="S70" t="n">
+        <v>4427.976248999999</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
+          <t>Correct sizes\sizer_results_16nodes_ec2.1_12_2.md</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr"/>
+      <c r="C71" t="inlineStr">
+        <is>
           <t>EC2.1</t>
         </is>
       </c>
-      <c r="B71" t="n">
-        <v>128</v>
-      </c>
-      <c r="C71" t="n">
-        <v>15</v>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>read</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
+      <c r="D71" t="n">
+        <v>8</v>
+      </c>
+      <c r="E71" t="n">
+        <v>14</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>write</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
         <is>
           <t>X205</t>
         </is>
       </c>
-      <c r="F71" t="n">
+      <c r="H71" t="n">
         <v>2</v>
       </c>
-      <c r="G71" t="n">
-        <v>748</v>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>[21.0, 20.0]</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>[419.82, 436.9]</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>[56.03, 57.18]</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>[256.8, 279.18]</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>[16630.0, 18020.0]</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>[710.87, 763.21]</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>[1100.0, 1110.0]</t>
+        </is>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>[2534.344222, 2433.733554]</t>
+        </is>
+      </c>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="R71" t="n">
+        <v>41</v>
+      </c>
+      <c r="S71" t="n">
+        <v>4968.077776</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
+          <t>Correct sizes\sizer_results_16nodes_ec2.1_12_2.md</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr"/>
+      <c r="C72" t="inlineStr">
+        <is>
           <t>EC2.1</t>
         </is>
       </c>
-      <c r="B72" t="n">
-        <v>1000</v>
-      </c>
-      <c r="C72" t="n">
-        <v>12</v>
-      </c>
-      <c r="D72" t="inlineStr">
+      <c r="D72" t="n">
+        <v>8</v>
+      </c>
+      <c r="E72" t="n">
+        <v>15</v>
+      </c>
+      <c r="F72" t="inlineStr">
         <is>
           <t>write</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>X205</t>
         </is>
       </c>
-      <c r="F72" t="n">
+      <c r="H72" t="n">
         <v>2</v>
       </c>
-      <c r="G72" t="n">
-        <v>993</v>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>[22.0, 22.0]</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>[416.87, 419.79]</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>[63.33, 57.1]</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>[381.16, 382.51]</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>[8850.0, 10440.0]</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>[624.33, 631.53]</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>[732.61, 741.02]</t>
+        </is>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>[2726.625241, 2713.945359]</t>
+        </is>
+      </c>
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="R72" t="n">
+        <v>44</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5440.5706</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
+          <t>Correct sizes\sizer_results_16nodes_ec2.1_12_2.md</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr"/>
+      <c r="C73" t="inlineStr">
+        <is>
           <t>EC2.1</t>
         </is>
       </c>
-      <c r="B73" t="n">
-        <v>1000</v>
-      </c>
-      <c r="C73" t="n">
-        <v>15</v>
-      </c>
-      <c r="D73" t="inlineStr">
+      <c r="D73" t="n">
+        <v>8</v>
+      </c>
+      <c r="E73" t="n">
+        <v>16</v>
+      </c>
+      <c r="F73" t="inlineStr">
         <is>
           <t>write</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>X205</t>
         </is>
       </c>
-      <c r="F73" t="n">
+      <c r="H73" t="n">
         <v>2</v>
       </c>
-      <c r="G73" t="n">
-        <v>2300</v>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>[23.0, 24.0]</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>[431.06, 419.13]</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>[63.56, 57.74]</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>[344.32, 332.78]</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>[13690.0, 11550.0]</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>[745.33, 727.25]</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>[923.69, 904.96]</t>
+        </is>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>[2821.109584, 2896.928883]</t>
+        </is>
+      </c>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="R73" t="n">
+        <v>47</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5718.038467</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>EC2.1</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>1000</v>
-      </c>
-      <c r="C74" t="n">
-        <v>16</v>
-      </c>
-      <c r="D74" t="inlineStr">
+          <t>Correct sizes\sizer_results_8nodes_rep2_12_4.md</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr"/>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>2REP</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>8</v>
+      </c>
+      <c r="E74" t="n">
+        <v>8</v>
+      </c>
+      <c r="F74" t="inlineStr">
         <is>
           <t>write</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>X205</t>
-        </is>
-      </c>
-      <c r="F74" t="n">
-        <v>2</v>
-      </c>
-      <c r="G74" t="n">
-        <v>2800</v>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>VEGMAN</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>4</v>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>[57.0]</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>[167.84]</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>[31.06]</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>[146.46]</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>[1860.0]</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>[267.63]</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>[320.53]</t>
+        </is>
+      </c>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>[7003.309872]</t>
+        </is>
+      </c>
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="R74" t="n">
+        <v>57</v>
+      </c>
+      <c r="S74" t="n">
+        <v>7003.309872</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>EC2.1</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
-        <v>1000</v>
-      </c>
-      <c r="C75" t="n">
-        <v>15</v>
-      </c>
-      <c r="D75" t="inlineStr">
+          <t>Correct sizes\sizer_results_8nodes_rep2_12_4.md</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr"/>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>2REP</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>8</v>
+      </c>
+      <c r="E75" t="n">
+        <v>5</v>
+      </c>
+      <c r="F75" t="inlineStr">
         <is>
           <t>read</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>X205</t>
-        </is>
-      </c>
-      <c r="F75" t="n">
-        <v>2</v>
-      </c>
-      <c r="G75" t="n">
-        <v>2400</v>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>VEGMAN</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>4</v>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>[55.0]</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>[116.28]</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>[5.21]</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>[74.76]</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>[3110.0]</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>[270.24]</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>[366.43]</t>
+        </is>
+      </c>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>[6657.23101]</t>
+        </is>
+      </c>
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="R75" t="n">
+        <v>55</v>
+      </c>
+      <c r="S75" t="n">
+        <v>6657.23101</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
+          <t>Correct sizes\sizer_results_16nodes_rep2_12_0.md</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr"/>
+      <c r="C76" t="inlineStr">
+        <is>
           <t>2REP</t>
         </is>
       </c>
-      <c r="B76" t="n">
+      <c r="D76" t="n">
         <v>128</v>
       </c>
-      <c r="C76" t="n">
+      <c r="E76" t="n">
         <v>8</v>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>write</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>X205</t>
         </is>
       </c>
-      <c r="F76" t="n">
+      <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="G76" t="n">
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>[646.0]</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>[241.59]</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>[26.1]</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>[97.42]</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>[10690.0]</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>[293.29]</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>[509.65]</t>
+        </is>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>[4929.603832]</t>
+        </is>
+      </c>
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="R76" t="n">
         <v>646</v>
+      </c>
+      <c r="S76" t="n">
+        <v>4929.603832</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
+          <t>Correct sizes\sizer_results_16nodes_rep2_12_2.md</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr"/>
+      <c r="C77" t="inlineStr">
+        <is>
           <t>2REP</t>
         </is>
       </c>
-      <c r="B77" t="n">
-        <v>1000</v>
-      </c>
-      <c r="C77" t="n">
-        <v>8</v>
-      </c>
-      <c r="D77" t="inlineStr">
+      <c r="D77" t="n">
+        <v>128</v>
+      </c>
+      <c r="E77" t="n">
+        <v>14</v>
+      </c>
+      <c r="F77" t="inlineStr">
         <is>
           <t>write</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>VEGMAN</t>
-        </is>
-      </c>
-      <c r="F77" t="n">
-        <v>4</v>
-      </c>
-      <c r="G77" t="n">
-        <v>109</v>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>X205</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>2</v>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>[373.0, 394.0]</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>[344.97, 325.27]</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>[25.44, 26.65]</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>[234.98, 224.1]</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>[10120.0, 9870.0]</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>[644.37, 608.33]</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>[866.24, 810.38]</t>
+        </is>
+      </c>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>[2845.713104, 3005.39883]</t>
+        </is>
+      </c>
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="R77" t="n">
+        <v>767</v>
+      </c>
+      <c r="S77" t="n">
+        <v>5851.111934</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
+          <t>Correct sizes\sizer_results_8nodes_rep2_12_4.md</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr"/>
+      <c r="C78" t="inlineStr">
+        <is>
           <t>2REP</t>
         </is>
       </c>
-      <c r="B78" t="n">
-        <v>1000</v>
-      </c>
-      <c r="C78" t="n">
-        <v>8</v>
-      </c>
-      <c r="D78" t="inlineStr">
+      <c r="D78" t="n">
+        <v>128</v>
+      </c>
+      <c r="E78" t="n">
+        <v>7</v>
+      </c>
+      <c r="F78" t="inlineStr">
         <is>
           <t>write</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>VEGMAN</t>
         </is>
       </c>
-      <c r="F78" t="n">
+      <c r="H78" t="n">
         <v>4</v>
       </c>
-      <c r="G78" t="n">
-        <v>109</v>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>[24.0]</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>[1520.0]</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>[22.86]</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>[99.57]</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>[271000.0]</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>[240.9]</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>[317.27]</t>
+        </is>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>[184.029227]</t>
+        </is>
+      </c>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="R78" t="n">
+        <v>24</v>
+      </c>
+      <c r="S78" t="n">
+        <v>184.029227</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
+          <t>Correct sizes\sizer_results_8nodes_rep2_12_4.md</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr"/>
+      <c r="C79" t="inlineStr">
+        <is>
           <t>2REP</t>
         </is>
       </c>
-      <c r="B79" t="n">
+      <c r="D79" t="n">
         <v>128</v>
       </c>
-      <c r="C79" t="n">
-        <v>10</v>
-      </c>
-      <c r="D79" t="inlineStr">
+      <c r="E79" t="n">
+        <v>8</v>
+      </c>
+      <c r="F79" t="inlineStr">
         <is>
           <t>write</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>X205</t>
-        </is>
-      </c>
-      <c r="F79" t="n">
-        <v>0</v>
-      </c>
-      <c r="G79" t="n">
-        <v>697</v>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>VEGMAN</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>4</v>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>[20.0]</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>[4730.0]</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>[19.24]</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>[57.28]</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>[597000.0]</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>[185.17]</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>[270.58]</t>
+        </is>
+      </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>[149.253063]</t>
+        </is>
+      </c>
+      <c r="Q79" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="R79" t="n">
+        <v>20</v>
+      </c>
+      <c r="S79" t="n">
+        <v>149.253063</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
+          <t>Correct sizes\sizer_results_8nodes_rep2_12_4.md</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr"/>
+      <c r="C80" t="inlineStr">
+        <is>
           <t>2REP</t>
         </is>
       </c>
-      <c r="B80" t="n">
+      <c r="D80" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E80" t="n">
+        <v>7</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>write</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>VEGMAN</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>4</v>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>[108.0]</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>[2980.0]</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>[43.68]</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>[150.62]</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>[518000.0]</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>[464.69]</t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>[680.16]</t>
+        </is>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>[102.482756]</t>
+        </is>
+      </c>
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="R80" t="n">
+        <v>108</v>
+      </c>
+      <c r="S80" t="n">
+        <v>102.482756</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Correct sizes\Sizer_results_1.txt</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr"/>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>2REP</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>128000</v>
+      </c>
+      <c r="E81" t="n">
+        <v>15</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>write</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>X205</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>2</v>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>[1500.0, 1500.0]</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>[18870.0, 19020.0]</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>[6770.0, 7470.0]</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>[16580.0, 16540.0]</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>[106000.0, 103000.0]</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>[27100.0, 28680.0]</t>
+        </is>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>[35580.0, 37460.0]</t>
+        </is>
+      </c>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>[11.437345, 11.351692]</t>
+        </is>
+      </c>
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="R81" t="n">
+        <v>3000</v>
+      </c>
+      <c r="S81" t="n">
+        <v>22.789037</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Correct sizes\sizer_results_8nodes_rep2_12_4.md</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr"/>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>2REP</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>128000</v>
+      </c>
+      <c r="E82" t="n">
+        <v>6</v>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>write</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>VEGMAN</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>4</v>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>[1900.0]</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>[12350.0]</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>[3340.0]</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>[10050.0]</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>[83000.0]</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>[20650.0]</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>[26560.0]</t>
+        </is>
+      </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>[13.858888]</t>
+        </is>
+      </c>
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="R82" t="n">
+        <v>1900</v>
+      </c>
+      <c r="S82" t="n">
+        <v>13.858888</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Correct sizes\sizer_results_16nodes_rep2_12_2.md</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr"/>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>2REP</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>128000</v>
+      </c>
+      <c r="E83" t="n">
+        <v>15</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>read</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>X205</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>2</v>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>[2200.0, 2300.0]</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>[13570.0, 12910.0]</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>[1860.0, 1930.0]</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>[13080.0, 12370.0]</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>[85000.0, 81000.0]</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>[20800.0, 19680.0]</t>
+        </is>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>[23530.0, 22190.0]</t>
+        </is>
+      </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>[16.199118, 17.105048]</t>
+        </is>
+      </c>
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="R83" t="n">
+        <v>4500</v>
+      </c>
+      <c r="S83" t="n">
+        <v>33.304166</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Correct sizes\sizer_results_8nodes_rep3_12_4.md</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr"/>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>3REP</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
         <v>128</v>
       </c>
-      <c r="C80" t="n">
+      <c r="E84" t="n">
+        <v>8</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>write</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>VEGMAN</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>4</v>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>[144.0]</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>[496.5]</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>[19.06]</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>[79.58]</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>[426000.0]</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>[237.54]</t>
+        </is>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>[301.33]</t>
+        </is>
+      </c>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>[1096.078514]</t>
+        </is>
+      </c>
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="R84" t="n">
+        <v>144</v>
+      </c>
+      <c r="S84" t="n">
+        <v>1096.078514</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Correct sizes\sizer_results_ec2.1_retest_actual.md</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr"/>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>EC2.1</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>8</v>
+      </c>
+      <c r="E85" t="n">
+        <v>16</v>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>read</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>X205</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>2</v>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>[39.0, 40.0]</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>[257.82, 254.45]</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>[12.91, 12.99]</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>[124.68, 123.92]</t>
+        </is>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>[23780.0, 27510.0]</t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>[394.55, 388.45]</t>
+        </is>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>[746.8, 706.18]</t>
+        </is>
+      </c>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>[4804.439467, 4860.130475]</t>
+        </is>
+      </c>
+      <c r="Q85" t="inlineStr">
+        <is>
+          <t>[2.539048, 2.649409]</t>
+        </is>
+      </c>
+      <c r="R85" t="n">
+        <v>79</v>
+      </c>
+      <c r="S85" t="n">
+        <v>9664.569942</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Correct sizes\sizer_results_ec2.1_retest_actual.md</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr"/>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>EC2.1</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>128</v>
+      </c>
+      <c r="E86" t="n">
+        <v>15</v>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>read</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>X205</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>2</v>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>[374.0, 374.0]</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>[367.32, 366.56]</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>[15.68, 16.16]</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>[287.33, 285.41]</t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>[10800.0, 11040.0]</t>
+        </is>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>[774.39, 775.19]</t>
+        </is>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>[978.2, 981.11]</t>
+        </is>
+      </c>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>[2855.666756, 2856.210792]</t>
+        </is>
+      </c>
+      <c r="Q86" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="R86" t="n">
+        <v>748</v>
+      </c>
+      <c r="S86" t="n">
+        <v>5711.877548</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Correct sizes\sizer_results_ec2.1_retest_actual.md</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr"/>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>EC2.1</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E87" t="n">
+        <v>15</v>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>write</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>X205</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>2</v>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>[1200.0, 1100.0]</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>[650.22, 667.65]</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>[64.6, 65.79]</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>[526.65, 542.97]</t>
+        </is>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>[15180.0, 14760.0]</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>[980.86, 1010.0]</t>
+        </is>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>[1200.0, 1230.0]</t>
+        </is>
+      </c>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>[1125.650271, 1095.83049]</t>
+        </is>
+      </c>
+      <c r="Q87" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="R87" t="n">
+        <v>2300</v>
+      </c>
+      <c r="S87" t="n">
+        <v>2221.480761</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Correct sizes\sizer_results_ec2.1_retest_actual.md</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr"/>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>EC2.1</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E88" t="n">
+        <v>16</v>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>write</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>X205</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>2</v>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>[1400.0, 1400.0]</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>[724.48, 715.34]</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>[109.93, 113.09]</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>[695.83, 686.7]</t>
+        </is>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>[4100.0, 4640.0]</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>[1060.0, 1060.0]</t>
+        </is>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>[1190.0, 1190.0]</t>
+        </is>
+      </c>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>[1078.814015, 1091.610334]</t>
+        </is>
+      </c>
+      <c r="Q88" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="R88" t="n">
+        <v>2800</v>
+      </c>
+      <c r="S88" t="n">
+        <v>2170.424349</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Correct sizes\sizer_results_ec2.1_retest_actual.md</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr"/>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>EC2.1</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E89" t="n">
+        <v>15</v>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>read</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>X205</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>2</v>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>[1200.0, 1200.0]</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>[671.2, 668.43]</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>[30.53, 32.33]</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>[565.41, 563.4]</t>
+        </is>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>[5250.0, 4960.0]</t>
+        </is>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>[1350.0, 1350.0]</t>
+        </is>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>[1640.0, 1640.0]</t>
+        </is>
+      </c>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>[1116.387731, 1118.091057]</t>
+        </is>
+      </c>
+      <c r="Q89" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="R89" t="n">
+        <v>2400</v>
+      </c>
+      <c r="S89" t="n">
+        <v>2234.478788</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Correct sizes\sizer_results_16nodes_rep2_12_0.md</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr"/>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>2REP</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>128</v>
+      </c>
+      <c r="E90" t="n">
+        <v>10</v>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>write</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>X205</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>[697.0]</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>[280.52]</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>[28.36]</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>[108.14]</t>
+        </is>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>[10370.0]</t>
+        </is>
+      </c>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>[385.59]</t>
+        </is>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>[799.0]</t>
+        </is>
+      </c>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>[5319.314049]</t>
+        </is>
+      </c>
+      <c r="Q90" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="R90" t="n">
+        <v>697</v>
+      </c>
+      <c r="S90" t="n">
+        <v>5319.314049</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Correct sizes\sizer_results_8nodes_rep2 (2).md</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr"/>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>2REP</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E91" t="n">
+        <v>8</v>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>write</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>VEGMAN</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>4</v>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>[109.0]</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>[1980.0]</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>[45.24]</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>[88.05]</t>
+        </is>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>[486000.0]</t>
+        </is>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>[294.54]</t>
+        </is>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>[469.26]</t>
+        </is>
+      </c>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>[103.999646]</t>
+        </is>
+      </c>
+      <c r="Q91" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="R91" t="n">
+        <v>109</v>
+      </c>
+      <c r="S91" t="n">
+        <v>103.999646</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Correct sizes\Sizer_results_1.txt</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr"/>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>2REP</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>128000</v>
+      </c>
+      <c r="E92" t="n">
+        <v>15</v>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>write</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>X205</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>2</v>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>[1500.0, 1500.0]</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>[18870.0, 19020.0]</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>[6770.0, 7470.0]</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>[16580.0, 16540.0]</t>
+        </is>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>[106000.0, 103000.0]</t>
+        </is>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>[27100.0, 28680.0]</t>
+        </is>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>[35580.0, 37460.0]</t>
+        </is>
+      </c>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>[11.437345, 11.351692]</t>
+        </is>
+      </c>
+      <c r="Q92" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="R92" t="n">
+        <v>3000</v>
+      </c>
+      <c r="S92" t="n">
+        <v>22.789037</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Correct sizes\sizer_results_16nodes_rep2_12_0.md</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr"/>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>2REP</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>128</v>
+      </c>
+      <c r="E93" t="n">
         <v>14</v>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="F93" t="inlineStr">
         <is>
           <t>write</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="G93" t="inlineStr">
         <is>
           <t>X205</t>
         </is>
       </c>
-      <c r="F80" t="n">
+      <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="G80" t="n">
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>[719.0]</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>[380.65]</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>[28.61]</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>[129.56]</t>
+        </is>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>[9570.0]</t>
+        </is>
+      </c>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>[588.81]</t>
+        </is>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>[1360.0]</t>
+        </is>
+      </c>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>[5483.248395]</t>
+        </is>
+      </c>
+      <c r="Q93" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="R93" t="n">
         <v>719</v>
+      </c>
+      <c r="S93" t="n">
+        <v>5483.248395</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Correct sizes\sizer_results_8nodes_rep2_12_4.md</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr"/>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>2REP</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E94" t="n">
+        <v>8</v>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>write</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>VEGMAN</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>4</v>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>[109.0]</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>[1980.0]</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>[45.24]</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>[88.05]</t>
+        </is>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>[486000.0]</t>
+        </is>
+      </c>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>[294.54]</t>
+        </is>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>[469.26]</t>
+        </is>
+      </c>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>[103.999646]</t>
+        </is>
+      </c>
+      <c r="Q94" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="R94" t="n">
+        <v>109</v>
+      </c>
+      <c r="S94" t="n">
+        <v>103.999646</v>
       </c>
     </row>
   </sheetData>
